--- a/1234.xlsx
+++ b/1234.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,24 +598,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -644,8 +636,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -929,7 +925,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D14" sqref="A1:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -948,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -959,7 +955,7 @@
         <v>38.8977</v>
       </c>
       <c r="D2" s="2">
-        <v>77.036500000000004</v>
+        <v>-77.036500000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -987,7 +983,7 @@
         <v>51.507399999999997</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1278</v>
+        <v>-0.1278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1046,7 +1042,7 @@
         <v>13.404999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1071,10 +1067,10 @@
         <v>45.421500000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>75.691900000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-75.691900000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1082,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>15.826700000000001</v>
+        <v>-15.826700000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>47.921799999999998</v>
+        <v>-47.921799999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -1102,7 +1098,7 @@
         <v>126.97799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>35.280900000000003</v>
+        <v>-35.280900000000003</v>
       </c>
       <c r="D13" s="2">
         <v>149.13</v>
@@ -1130,7 +1126,7 @@
         <v>37.617600000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +1137,7 @@
         <v>19.432600000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>99.133200000000002</v>
+        <v>-99.133200000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -1158,7 +1154,7 @@
         <v>31.235700000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1168,7 @@
         <v>46.6753</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1183,10 +1179,10 @@
         <v>40.416800000000002</v>
       </c>
       <c r="D18" s="2">
-        <v>3.7038000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-3.7038000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1200,7 +1196,7 @@
         <v>7.3986000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1208,13 +1204,13 @@
         <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>25.745999999999999</v>
+        <v>-25.745999999999999</v>
       </c>
       <c r="D20" s="2">
         <v>28.187100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1222,13 +1218,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="2">
-        <v>6.2088000000000001</v>
+        <v>-6.2088000000000001</v>
       </c>
       <c r="D21" s="2">
         <v>106.8456</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1236,10 +1232,10 @@
         <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>34.603700000000003</v>
+        <v>-34.603700000000003</v>
       </c>
       <c r="D22" s="2">
-        <v>58.381599999999999</v>
+        <v>-58.381599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1256,7 +1252,7 @@
         <v>51.530999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1270,7 +1266,7 @@
         <v>104.9282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1278,10 +1274,10 @@
         <v>51</v>
       </c>
       <c r="C25" s="2">
-        <v>33.448900000000002</v>
+        <v>-33.448900000000002</v>
       </c>
       <c r="D25" s="2">
-        <v>70.669300000000007</v>
+        <v>-70.669300000000007</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1298,7 +1294,7 @@
         <v>-6.8498000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -1326,7 +1322,7 @@
         <v>105.85420000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -1340,7 +1336,7 @@
         <v>10.7522</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -1368,7 +1364,7 @@
         <v>51.389000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -1382,7 +1378,7 @@
         <v>106.9057</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>41.286499999999997</v>
+        <v>-41.286499999999997</v>
       </c>
       <c r="D33" s="2">
         <v>174.77619999999999</v>
@@ -1424,7 +1420,7 @@
         <v>7.4474</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -1438,7 +1434,7 @@
         <v>16.373799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>4.3517000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -1463,7 +1459,7 @@
         <v>38.722299999999997</v>
       </c>
       <c r="D38" s="2">
-        <v>9.1393000000000004</v>
+        <v>-9.1393000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -1480,7 +1476,7 @@
         <v>23.727499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1494,7 +1490,7 @@
         <v>3.0868000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>26.102499999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>4.9040999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -1536,7 +1532,7 @@
         <v>35.213700000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1550,7 +1546,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1561,10 +1557,10 @@
         <v>53.349800000000002</v>
       </c>
       <c r="D45" s="2">
-        <v>6.2603</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-6.2603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -1578,7 +1574,7 @@
         <v>19.040199999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>24.935400000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -1614,10 +1610,10 @@
         <v>99</v>
       </c>
       <c r="C49" s="2">
-        <v>12.0464</v>
+        <v>-12.0464</v>
       </c>
       <c r="D49" s="2">
-        <v>77.0428</v>
+        <v>-77.0428</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -1631,10 +1627,10 @@
         <v>23.113600000000002</v>
       </c>
       <c r="D50" s="2">
-        <v>82.366600000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-82.366600000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -1648,7 +1644,7 @@
         <v>21.427900000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1670,13 +1666,13 @@
         <v>99</v>
       </c>
       <c r="C53" s="2">
-        <v>12.0464</v>
+        <v>-12.0464</v>
       </c>
       <c r="D53" s="2">
-        <v>77.0428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-77.0428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -1704,7 +1700,7 @@
         <v>105.85420000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -1718,7 +1714,7 @@
         <v>73.047899999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -1746,7 +1742,7 @@
         <v>100.5018</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>90.412499999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -1768,7 +1764,7 @@
         <v>115</v>
       </c>
       <c r="C60" s="2">
-        <v>25.966699999999999</v>
+        <v>-25.966699999999999</v>
       </c>
       <c r="D60" s="2">
         <v>32.583300000000001</v>
@@ -1782,13 +1778,13 @@
         <v>117</v>
       </c>
       <c r="C61" s="2">
-        <v>1.2864</v>
+        <v>-1.2864</v>
       </c>
       <c r="D61" s="2">
         <v>36.8172</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -1802,7 +1798,7 @@
         <v>2.1120999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
@@ -1816,7 +1812,7 @@
         <v>120.9842</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>120</v>
       </c>
@@ -1824,13 +1820,13 @@
         <v>121</v>
       </c>
       <c r="C64" s="2">
-        <v>6.1628999999999996</v>
+        <v>-6.1628999999999996</v>
       </c>
       <c r="D64" s="2">
         <v>35.751600000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>108</v>
       </c>
@@ -1858,7 +1854,7 @@
         <v>32.582500000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>112</v>
       </c>
@@ -1872,7 +1868,7 @@
         <v>90.412499999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -1880,13 +1876,13 @@
         <v>125</v>
       </c>
       <c r="C68" s="2">
-        <v>4.4419000000000004</v>
+        <v>-4.4419000000000004</v>
       </c>
       <c r="D68" s="2">
         <v>15.266299999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>126</v>
       </c>
@@ -1897,10 +1893,10 @@
         <v>0.1807</v>
       </c>
       <c r="D69" s="2">
-        <v>78.467799999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-78.467799999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>69.207499999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>130</v>
       </c>
@@ -1928,7 +1924,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -1950,13 +1946,13 @@
         <v>135</v>
       </c>
       <c r="C73" s="2">
-        <v>8.8391000000000002</v>
+        <v>-8.8391000000000002</v>
       </c>
       <c r="D73" s="2">
         <v>13.289400000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>136</v>
       </c>
@@ -1967,10 +1963,10 @@
         <v>17.127400000000002</v>
       </c>
       <c r="D74" s="2">
-        <v>61.846800000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-61.846800000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>138</v>
       </c>
@@ -1984,7 +1980,7 @@
         <v>44.5152</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>140</v>
       </c>
@@ -2009,10 +2005,10 @@
         <v>25.034300000000002</v>
       </c>
       <c r="D77" s="2">
-        <v>77.396299999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-77.396299999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>144</v>
       </c>
@@ -2026,7 +2022,7 @@
         <v>50.535400000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>146</v>
       </c>
@@ -2037,10 +2033,10 @@
         <v>13.113200000000001</v>
       </c>
       <c r="D79" s="2">
-        <v>59.598799999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-59.598799999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>148</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>27.561499999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>150</v>
       </c>
@@ -2065,10 +2061,10 @@
         <v>17.251000000000001</v>
       </c>
       <c r="D81" s="2">
-        <v>88.759</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-88.759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>152</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>2.4546999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>154</v>
       </c>
@@ -2104,13 +2100,13 @@
         <v>157</v>
       </c>
       <c r="C84" s="2">
-        <v>19.042100000000001</v>
+        <v>-19.042100000000001</v>
       </c>
       <c r="D84" s="2">
-        <v>65.255899999999997</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-65.255899999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>158</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>18.4131</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>160</v>
       </c>
@@ -2132,13 +2128,13 @@
         <v>161</v>
       </c>
       <c r="C86" s="2">
-        <v>24.654399999999999</v>
+        <v>-24.654399999999999</v>
       </c>
       <c r="D86" s="2">
         <v>25.9087</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>162</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>114.9408</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>164</v>
       </c>
@@ -2166,7 +2162,7 @@
         <v>23.321899999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>166</v>
       </c>
@@ -2177,10 +2173,10 @@
         <v>12.3714</v>
       </c>
       <c r="D89" s="2">
-        <v>1.5197000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.5197000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>168</v>
       </c>
@@ -2188,13 +2184,13 @@
         <v>169</v>
       </c>
       <c r="C90" s="2">
-        <v>3.3614000000000002</v>
+        <v>-3.3614000000000002</v>
       </c>
       <c r="D90" s="2">
         <v>29.3599</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>170</v>
       </c>
@@ -2205,10 +2201,10 @@
         <v>14.9215</v>
       </c>
       <c r="D91" s="2">
-        <v>23.508700000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-23.508700000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>48</v>
       </c>
@@ -2222,7 +2218,7 @@
         <v>104.9282</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>172</v>
       </c>
@@ -2236,7 +2232,7 @@
         <v>11.5021</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>174</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>18.558199999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>176</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>15.0557</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>50</v>
       </c>
@@ -2272,13 +2268,13 @@
         <v>51</v>
       </c>
       <c r="C96" s="2">
-        <v>33.437199999999997</v>
+        <v>-33.437199999999997</v>
       </c>
       <c r="D96" s="2">
-        <v>70.650599999999997</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-70.650599999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>178</v>
       </c>
@@ -2289,7 +2285,7 @@
         <v>4.7110000000000003</v>
       </c>
       <c r="D97" s="2">
-        <v>74.072100000000006</v>
+        <v>-74.072100000000006</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -2300,13 +2296,13 @@
         <v>181</v>
       </c>
       <c r="C98" s="2">
-        <v>11.702199999999999</v>
+        <v>-11.702199999999999</v>
       </c>
       <c r="D98" s="2">
         <v>43.255099999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>182</v>
       </c>
@@ -2314,13 +2310,13 @@
         <v>183</v>
       </c>
       <c r="C99" s="2">
-        <v>4.2633999999999999</v>
+        <v>-4.2633999999999999</v>
       </c>
       <c r="D99" s="2">
         <v>15.242900000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>184</v>
       </c>
@@ -2331,10 +2327,10 @@
         <v>9.9346999999999994</v>
       </c>
       <c r="D100" s="2">
-        <v>84.087500000000006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-84.087500000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>186</v>
       </c>
@@ -2349,7 +2345,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
